--- a/S7/Introduction/2025_Введение_в_ИИ.xlsx
+++ b/S7/Introduction/2025_Введение_в_ИИ.xlsx
@@ -1,23 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\Big_data\S7\Introduction\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F45132F-E098-4A44-A192-DDC1800D3852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Общий рейтинг" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Билеты_на_экзамен" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Практика СП 3-4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Практика МКТ" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Задания на практику" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Общий рейтинг" sheetId="1" r:id="rId1"/>
+    <sheet name="Билеты_на_экзамен" sheetId="2" r:id="rId2"/>
+    <sheet name="Практика СП 3-4" sheetId="3" r:id="rId3"/>
+    <sheet name="Практика МКТ" sheetId="4" r:id="rId4"/>
+    <sheet name="Задания на практику" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="150">
   <si>
     <t>Посещение</t>
   </si>
@@ -40,10 +47,10 @@
     <t>Посещения</t>
   </si>
   <si>
-    <t xml:space="preserve">Работа на паре</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Пропуск 3+ лекции</t>
+    <t>Работа на паре</t>
+  </si>
+  <si>
+    <t>Пропуск 3+ лекции</t>
   </si>
   <si>
     <t>Регрессия</t>
@@ -55,130 +62,130 @@
     <t>Кластеризация</t>
   </si>
   <si>
-    <t xml:space="preserve">Экстремальные задачи</t>
+    <t>Экстремальные задачи</t>
   </si>
   <si>
     <t>Автоматизация</t>
   </si>
   <si>
-    <t xml:space="preserve">Контрольная работа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рейтинг практика</t>
+    <t>Контрольная работа</t>
+  </si>
+  <si>
+    <t>Рейтинг практика</t>
   </si>
   <si>
     <t>Экзамен</t>
   </si>
   <si>
-    <t xml:space="preserve">Рейтинг итог</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Елистратов Вячеслав Евгеньевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СП 3-4</t>
+    <t>Рейтинг итог</t>
+  </si>
+  <si>
+    <t>Елистратов Вячеслав Евгеньевич</t>
+  </si>
+  <si>
+    <t>СП 3-4</t>
   </si>
   <si>
     <t>5-</t>
   </si>
   <si>
-    <t xml:space="preserve">Зейналов Нихат Исмаил оглы</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кириенко Денис Олегович</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ковтунов Дмитрий Алексеевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Краснов Леонид Алексеевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Леонтьев Илья Сергеевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Макаркин Никита Сергеевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Маметьев Артемий Сергеевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Носков Ярослав Владимирович</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Пантелеев Всеволод Игоревич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Салдаев Владимир Сергеевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Скоробогатов Данил Евгеньевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Шлык Даниил Евгеньевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Башкайкин Данил Евгеньевич</t>
+    <t>Зейналов Нихат Исмаил оглы</t>
+  </si>
+  <si>
+    <t>Кириенко Денис Олегович</t>
+  </si>
+  <si>
+    <t>Ковтунов Дмитрий Алексеевич</t>
+  </si>
+  <si>
+    <t>Краснов Леонид Алексеевич</t>
+  </si>
+  <si>
+    <t>Леонтьев Илья Сергеевич</t>
+  </si>
+  <si>
+    <t>Макаркин Никита Сергеевич</t>
+  </si>
+  <si>
+    <t>Маметьев Артемий Сергеевич</t>
+  </si>
+  <si>
+    <t>Носков Ярослав Владимирович</t>
+  </si>
+  <si>
+    <t>Пантелеев Всеволод Игоревич</t>
+  </si>
+  <si>
+    <t>Салдаев Владимир Сергеевич</t>
+  </si>
+  <si>
+    <t>Скоробогатов Данил Евгеньевич</t>
+  </si>
+  <si>
+    <t>Шлык Даниил Евгеньевич</t>
+  </si>
+  <si>
+    <t>Башкайкин Данил Евгеньевич</t>
   </si>
   <si>
     <t>СЦТ</t>
   </si>
   <si>
-    <t xml:space="preserve">Бекболот Отгонцэцэг</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вегера Дмитрий Евгеньевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Винницкая Дина Сергеевна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Глущенко Сергей Денисович</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Громыко Артём Артурович</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Диденко Юрий Павлович</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Жесткова Виолетта Олеговна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ильяхова Алиса Алексеевна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Крисько Данил Андреевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кузнецов Егор Денисович</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Лютарь Владислав Павлович</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Оболонский Дмитрий Сергеевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Плешанов Даниил Антонович</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Поповкин Артемий Андреевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Прилипко Ярослав Алексеевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Протопопова Анастасия Семеновна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Севостьянов Денис Сергеевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Токарев Никита Максимович</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Щербаков Илья Анатольевич</t>
+    <t>Бекболот Отгонцэцэг</t>
+  </si>
+  <si>
+    <t>Вегера Дмитрий Евгеньевич</t>
+  </si>
+  <si>
+    <t>Винницкая Дина Сергеевна</t>
+  </si>
+  <si>
+    <t>Глущенко Сергей Денисович</t>
+  </si>
+  <si>
+    <t>Громыко Артём Артурович</t>
+  </si>
+  <si>
+    <t>Диденко Юрий Павлович</t>
+  </si>
+  <si>
+    <t>Жесткова Виолетта Олеговна</t>
+  </si>
+  <si>
+    <t>Ильяхова Алиса Алексеевна</t>
+  </si>
+  <si>
+    <t>Крисько Данил Андреевич</t>
+  </si>
+  <si>
+    <t>Кузнецов Егор Денисович</t>
+  </si>
+  <si>
+    <t>Лютарь Владислав Павлович</t>
+  </si>
+  <si>
+    <t>Оболонский Дмитрий Сергеевич</t>
+  </si>
+  <si>
+    <t>Плешанов Даниил Антонович</t>
+  </si>
+  <si>
+    <t>Поповкин Артемий Андреевич</t>
+  </si>
+  <si>
+    <t>Прилипко Ярослав Алексеевич</t>
+  </si>
+  <si>
+    <t>Протопопова Анастасия Семеновна</t>
+  </si>
+  <si>
+    <t>Севостьянов Денис Сергеевич</t>
+  </si>
+  <si>
+    <t>Токарев Никита Максимович</t>
+  </si>
+  <si>
+    <t>Щербаков Илья Анатольевич</t>
   </si>
   <si>
     <t>Алин Павел Михайлович</t>
@@ -199,7 +206,7 @@
     <t>Вяткина Валентина Андреевна</t>
   </si>
   <si>
-    <t xml:space="preserve">Глобин Дмитрий Алексеевич</t>
+    <t>Глобин Дмитрий Алексеевич</t>
   </si>
   <si>
     <t>Голубева Дарья Артемовна</t>
@@ -217,7 +224,7 @@
     <t>Ляпин Дмитрий Александрович</t>
   </si>
   <si>
-    <t xml:space="preserve">Матусовская Елизавета Романовна</t>
+    <t>Матусовская Елизавета Романовна</t>
   </si>
   <si>
     <t>Патруков Максим Дмитриевич</t>
@@ -235,7 +242,7 @@
     <t>Плюснина Анастасия Павловна</t>
   </si>
   <si>
-    <t xml:space="preserve">Пшенник Вячеслав Романович</t>
+    <t>Пшенник Вячеслав Романович</t>
   </si>
   <si>
     <t>Свиридов Борис Николаевич</t>
@@ -250,121 +257,121 @@
     <t>Шкуратова Дарья Викторовна</t>
   </si>
   <si>
-    <t xml:space="preserve">Баринов Максим Алексеевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СП 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Баширова Камилла Рамилевна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Бизимов Илья Георгиевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Быков Артём Денисович</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ефимов Ян Дмитриевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Жуков Александр Витальевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Игнатович Пётр Константинович</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ионин Владислав Дмитриевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ионов Денис Сергеевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кислюк Матвей Викторович</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Лунев Александр Вячеславович</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Маньшина Таисия Денисовна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Матвеев Михаил Андреевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Мех Илья Вячеславович</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Монастырный Иван Александрович</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рукша Ульяна Дмитриевна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Савин Александр Дмитриевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сивохин Сергей Александрович</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Суворов Максим Сергеевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Трегубов Вячеслав Дмитриевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Блохина Вероника Дмитриевна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СП 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Богданова Валерия Дмитриевна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Грузков Богдан Артурович</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Давыдова Алёна Витальевна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добрынский Никита Николаевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Загибин Альберт Александрович</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Земсков Семен Максимович</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Коваль Ирина Евгеньевна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Марьян Екатерина Денисовна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сидоренко Юлия Вячеславовна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сокиркина Диана Владимировна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Суходолов Владислав Олегович</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ткаченко Полина Дмитриевна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Трепаченко Тимофей Андреевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Шкарин Тихон Леонидович</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Шут Марина Владимировна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Юрченко Павел Сергеевич</t>
+    <t>Баринов Максим Алексеевич</t>
+  </si>
+  <si>
+    <t>СП 1</t>
+  </si>
+  <si>
+    <t>Баширова Камилла Рамилевна</t>
+  </si>
+  <si>
+    <t>Бизимов Илья Георгиевич</t>
+  </si>
+  <si>
+    <t>Быков Артём Денисович</t>
+  </si>
+  <si>
+    <t>Ефимов Ян Дмитриевич</t>
+  </si>
+  <si>
+    <t>Жуков Александр Витальевич</t>
+  </si>
+  <si>
+    <t>Игнатович Пётр Константинович</t>
+  </si>
+  <si>
+    <t>Ионин Владислав Дмитриевич</t>
+  </si>
+  <si>
+    <t>Ионов Денис Сергеевич</t>
+  </si>
+  <si>
+    <t>Кислюк Матвей Викторович</t>
+  </si>
+  <si>
+    <t>Лунев Александр Вячеславович</t>
+  </si>
+  <si>
+    <t>Маньшина Таисия Денисовна</t>
+  </si>
+  <si>
+    <t>Матвеев Михаил Андреевич</t>
+  </si>
+  <si>
+    <t>Мех Илья Вячеславович</t>
+  </si>
+  <si>
+    <t>Монастырный Иван Александрович</t>
+  </si>
+  <si>
+    <t>Рукша Ульяна Дмитриевна</t>
+  </si>
+  <si>
+    <t>Савин Александр Дмитриевич</t>
+  </si>
+  <si>
+    <t>Сивохин Сергей Александрович</t>
+  </si>
+  <si>
+    <t>Суворов Максим Сергеевич</t>
+  </si>
+  <si>
+    <t>Трегубов Вячеслав Дмитриевич</t>
+  </si>
+  <si>
+    <t>Блохина Вероника Дмитриевна</t>
+  </si>
+  <si>
+    <t>СП 2</t>
+  </si>
+  <si>
+    <t>Богданова Валерия Дмитриевна</t>
+  </si>
+  <si>
+    <t>Грузков Богдан Артурович</t>
+  </si>
+  <si>
+    <t>Давыдова Алёна Витальевна</t>
+  </si>
+  <si>
+    <t>Добрынский Никита Николаевич</t>
+  </si>
+  <si>
+    <t>Загибин Альберт Александрович</t>
+  </si>
+  <si>
+    <t>Земсков Семен Максимович</t>
+  </si>
+  <si>
+    <t>Коваль Ирина Евгеньевна</t>
+  </si>
+  <si>
+    <t>Марьян Екатерина Денисовна</t>
+  </si>
+  <si>
+    <t>Сидоренко Юлия Вячеславовна</t>
+  </si>
+  <si>
+    <t>Сокиркина Диана Владимировна</t>
+  </si>
+  <si>
+    <t>Суходолов Владислав Олегович</t>
+  </si>
+  <si>
+    <t>Ткаченко Полина Дмитриевна</t>
+  </si>
+  <si>
+    <t>Трепаченко Тимофей Андреевич</t>
+  </si>
+  <si>
+    <t>Шкарин Тихон Леонидович</t>
+  </si>
+  <si>
+    <t>Шут Марина Владимировна</t>
+  </si>
+  <si>
+    <t>Юрченко Павел Сергеевич</t>
   </si>
   <si>
     <t>Лекция</t>
@@ -373,37 +380,37 @@
     <t>Вопрос</t>
   </si>
   <si>
-    <t xml:space="preserve">Типы данных. Понятие однородности / неоднородности. Двойственность формулировки</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Типы данных. Категориальные / количественные. Методы предобработки. Отличия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Типы задач решаемых ИИ. Обучение с учителем / без учителя / с подкреплением. Формальная постановка задач</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Постановка регрессии как задачи оптимизации. Метрики и функции ошибки задачи регрессии, Отличия, Понятия интерпретируемости. Случаи использования</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вывод аналитического решения задачи линейной регрессии в векторной форме (ps при дифф. первое слагаемое можно сжато)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Постановка регрессии как задачи оптимизации. Модели применяемые для решения задачи. Внесение нелинейности в линейные модели. Случаи использования</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Метрики задачи классификации (бинарной и мультиклассификации). ROC AUC. Вычисление AUC. Подбор гиперпараметра классификации. Примеры выбора метрик для задачи бинарной классификации.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Метрики задачи классификации (бинарной и мультиклассификации). Модернизация метрик для задачи мультиклассификации. Примеры выбора метрик для задачи мультиклассификации.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Алгоритм построения дерева решений для задачи классификации(регрессии).  Критерии останова + критерии разбиения (при задаче регрессии / классификации</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Алгоритм построения дерева решений для задачи классификации(регрессии).  Критерии разбиения (при задаче регрессии / классификации) + обработка категориальных признаков при построении деревьев</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26 09</t>
+    <t>Типы данных. Понятие однородности / неоднородности. Двойственность формулировки</t>
+  </si>
+  <si>
+    <t>Типы данных. Категориальные / количественные. Методы предобработки. Отличия</t>
+  </si>
+  <si>
+    <t>Типы задач решаемых ИИ. Обучение с учителем / без учителя / с подкреплением. Формальная постановка задач</t>
+  </si>
+  <si>
+    <t>Постановка регрессии как задачи оптимизации. Метрики и функции ошибки задачи регрессии, Отличия, Понятия интерпретируемости. Случаи использования</t>
+  </si>
+  <si>
+    <t>Вывод аналитического решения задачи линейной регрессии в векторной форме (ps при дифф. первое слагаемое можно сжато)</t>
+  </si>
+  <si>
+    <t>Постановка регрессии как задачи оптимизации. Модели применяемые для решения задачи. Внесение нелинейности в линейные модели. Случаи использования</t>
+  </si>
+  <si>
+    <t>Метрики задачи классификации (бинарной и мультиклассификации). ROC AUC. Вычисление AUC. Подбор гиперпараметра классификации. Примеры выбора метрик для задачи бинарной классификации.</t>
+  </si>
+  <si>
+    <t>Метрики задачи классификации (бинарной и мультиклассификации). Модернизация метрик для задачи мультиклассификации. Примеры выбора метрик для задачи мультиклассификации.</t>
+  </si>
+  <si>
+    <t>Алгоритм построения дерева решений для задачи классификации(регрессии).  Критерии останова + критерии разбиения (при задаче регрессии / классификации</t>
+  </si>
+  <si>
+    <t>Алгоритм построения дерева решений для задачи классификации(регрессии).  Критерии разбиения (при задаче регрессии / классификации) + обработка категориальных признаков при построении деревьев</t>
+  </si>
+  <si>
+    <t>26 09</t>
   </si>
   <si>
     <t>17.10</t>
@@ -421,7 +428,7 @@
     <t>ПЕрминов Игорь Дмитриевич</t>
   </si>
   <si>
-    <t xml:space="preserve">ПлюснинА Анастасия Павловна</t>
+    <t>ПлюснинА Анастасия Павловна</t>
   </si>
   <si>
     <t>Тема</t>
@@ -430,10 +437,10 @@
     <t>Описание</t>
   </si>
   <si>
-    <t xml:space="preserve">Основные пункты для выполнения</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Задача регрессии / классификации</t>
+    <t>Основные пункты для выполнения</t>
+  </si>
+  <si>
+    <t>Задача регрессии / классификации</t>
   </si>
   <si>
     <t xml:space="preserve">Работа состоит из аналитической и практической части:
@@ -441,28 +448,28 @@
 2. Применение готовых решений из библиотек и проведение исследования </t>
   </si>
   <si>
-    <t xml:space="preserve">1. +5 Программа аналитически решаюшая регрессию/классификация
+    <t>1. +5 Программа аналитически решаюшая регрессию/классификация
 2. +1 Найден и предобработан датасет для задачи регрессии/ классификацией
 3. +2 Применены различные модели для задачи регресси / классификации
 4. +2 Подсчитаны метрики, визуализированы результаты</t>
   </si>
   <si>
-    <t xml:space="preserve">Задача кластеризации</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рассматривается задача обучения без учителя (кластеризация) и применение к ней различных методов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. +2 Применен метод k средних
+    <t>Задача кластеризации</t>
+  </si>
+  <si>
+    <t>Рассматривается задача обучения без учителя (кластеризация) и применение к ней различных методов</t>
+  </si>
+  <si>
+    <t>1. +2 Применен метод k средних
 2. +4 Применены иерархические методы
 3. +2 Подсчитаны метрики для задачи кластеризации
 4. +2 Визуализированы результаты кластеризации</t>
   </si>
   <si>
-    <t xml:space="preserve">Экстремальные задачи и оптимизация</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Данная лабораторная требует рассмотрения экстремальных случаев в данных, а также оптимизацию моделей
+    <t>Экстремальные задачи и оптимизация</t>
+  </si>
+  <si>
+    <t>Данная лабораторная требует рассмотрения экстремальных случаев в данных, а также оптимизацию моделей
 1. Выбранный датасет должен содержать малое количество данных или слишком большое количество данных
 В случае малого количества необходимо произвести методы по обучению на малых объемах данных или попытки по расширению датасета
 В случае большого количества данных необходимо применить методы сокращения рассматриваемых признаков
@@ -471,17 +478,17 @@
 Произвести попытку интерпретации моделей</t>
   </si>
   <si>
-    <t xml:space="preserve">1. +1 Найден и предобработан датасет с экстремальным случаем
+    <t>1. +1 Найден и предобработан датасет с экстремальным случаем
 2. +2 Применены и рассмотрены модели с экстремальными случаями
 3. +3 Применение классических моделей
 4. + 2 Произведен дискретный и непрерывный подбор гиперпараметров
 5. +2 Интерпретация моделей</t>
   </si>
   <si>
-    <t xml:space="preserve">Нейронные сети для компьютерного зрения</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Работа может проводиться с использованием: 
+    <t>Нейронные сети для компьютерного зрения</t>
+  </si>
+  <si>
+    <t>Работа может проводиться с использованием: 
 1. Airflow 
 2. MlFlow
 В случае использования Airflow необходимо произвести сбор, предобработку, inference а также сохранение результатов вашей модели
@@ -489,7 +496,7 @@
 Рекомендуется использование Docker для изоляции вашего проекта</t>
   </si>
   <si>
-    <t xml:space="preserve">1. +2 Развернуто рабочее окружение проекта и все необходимые инструменты
+    <t>1. +2 Развернуто рабочее окружение проекта и все необходимые инструменты
 2. +1 Сбор данных производится в автоматическом режиме
 3. +2 Производится валидация данных и их предобработка
 4. +2 Корректно производится функционал модели (обучение или inference)
@@ -501,29 +508,29 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5">
     <font>
-      <sz val="10.000000"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Liberation Sans"/>
     </font>
     <font>
-      <sz val="14.000000"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Liberation Sans"/>
     </font>
     <font>
-      <sz val="10.000000"/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10.000000"/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.000000"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -537,14 +544,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="0"/>
-        <bgColor theme="0" tint="0"/>
+        <fgColor theme="0"/>
+        <bgColor theme="0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="65"/>
-        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
@@ -568,11 +574,11 @@
   </fills>
   <borders count="24">
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -587,7 +593,7 @@
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -599,8 +605,8 @@
       <top style="thin">
         <color theme="1"/>
       </top>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -615,7 +621,7 @@
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -630,7 +636,7 @@
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -645,7 +651,7 @@
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -660,7 +666,7 @@
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -675,7 +681,7 @@
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -690,7 +696,7 @@
       <bottom style="medium">
         <color rgb="FF00B050"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -705,7 +711,7 @@
       <bottom style="medium">
         <color rgb="FF00B050"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -720,7 +726,7 @@
       <bottom style="medium">
         <color rgb="FF00B050"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -735,7 +741,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -744,11 +750,11 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="none"/>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -757,11 +763,11 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="none"/>
+      <top/>
       <bottom style="medium">
         <color rgb="FF00B050"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -776,7 +782,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -785,11 +791,11 @@
       <right style="thin">
         <color theme="1"/>
       </right>
-      <top style="none"/>
+      <top/>
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -804,7 +810,7 @@
       <bottom style="medium">
         <color rgb="FF00B050"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -813,11 +819,11 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="none"/>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -832,7 +838,7 @@
       <bottom style="thin">
         <color rgb="FFCCCCCC"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -847,7 +853,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -862,7 +868,7 @@
       <bottom style="thin">
         <color rgb="FFF1A983"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -877,7 +883,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -889,8 +895,8 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -905,190 +911,191 @@
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="65">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="5" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="7" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="3" fillId="0" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="9" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="9" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="10" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="3" fillId="2" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="2" fillId="3" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="4" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="2" fillId="3" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="4" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="2" fillId="4" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="3" fillId="2" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="3" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="2" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="3" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="4" fillId="0" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="2" fillId="3" borderId="14" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="4" fillId="0" borderId="15" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="14" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="3" fillId="3" borderId="14" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="3" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="3" fillId="3" borderId="17" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="17" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="2" fillId="5" borderId="18" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="5" borderId="19" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="5" borderId="19" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="2" fillId="2" borderId="18" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="19" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="19" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="19" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="2" fillId="2" borderId="20" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="2" borderId="21" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="22" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="22" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="0" borderId="23" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="23" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="16" xfId="0" applyNumberFormat="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="16" xfId="0" applyNumberFormat="1"/>
-    <xf fontId="2" fillId="0" borderId="23" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="3" fillId="0" borderId="23" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="23" numFmtId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf fontId="2" fillId="3" borderId="23" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="3" fillId="2" borderId="23" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="3" borderId="23" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="2" borderId="23" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="23" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1100,295 +1107,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
     <a:clrScheme name="Стандартная">
       <a:dk1>
@@ -1591,154 +1318,154 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O100"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="5.28125"/>
-    <col customWidth="1" min="2" max="2" width="36.8515625"/>
-    <col customWidth="1" min="4" max="4" width="14.421875"/>
-    <col customWidth="1" min="5" max="5" width="15.57421875"/>
-    <col customWidth="1" min="6" max="6" width="18.00390625"/>
-    <col customWidth="1" min="7" max="8" width="15.28125"/>
-    <col customWidth="1" min="9" max="9" width="14.421875"/>
-    <col customWidth="1" min="10" max="10" width="22.28125"/>
-    <col customWidth="1" min="11" max="11" width="14.421875"/>
-    <col customWidth="1" min="12" max="12" width="19.28125"/>
-    <col customWidth="1" min="13" max="13" width="16.57421875"/>
-    <col customWidth="1" min="14" max="14" width="8.8515625"/>
-    <col customWidth="1" min="15" max="15" width="13.57421875"/>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="2" max="2" width="36.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="8" width="15.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1"/>
+    <col min="10" max="10" width="22.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" customWidth="1"/>
+    <col min="12" max="12" width="19.28515625" customWidth="1"/>
+    <col min="13" max="13" width="16.5703125" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5">
+    <row r="1" spans="1:15" ht="18">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-    </row>
-    <row r="2" ht="12.75">
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="4">
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="3">
         <v>45947</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-    </row>
-    <row r="3" ht="12.75">
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" ht="12.75">
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>4</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7" t="s">
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="8"/>
-    </row>
-    <row r="5" ht="12.75">
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1759,13 +1486,13 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
-      <c r="O5" s="10"/>
-    </row>
-    <row r="6" ht="12.75">
+      <c r="O5" s="9"/>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1786,13 +1513,13 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
-      <c r="O6" s="10"/>
-    </row>
-    <row r="7" ht="12.75">
+      <c r="O6" s="9"/>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1815,13 +1542,13 @@
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
-      <c r="O7" s="10"/>
-    </row>
-    <row r="8" ht="12.75">
+      <c r="O7" s="9"/>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1844,13 +1571,13 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
-      <c r="O8" s="10"/>
-    </row>
-    <row r="9" ht="12.75">
+      <c r="O8" s="9"/>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1873,13 +1600,13 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
-      <c r="O9" s="10"/>
-    </row>
-    <row r="10" ht="12.75">
+      <c r="O9" s="9"/>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1898,13 +1625,13 @@
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
-      <c r="O10" s="10"/>
-    </row>
-    <row r="11" ht="12.75">
+      <c r="O10" s="9"/>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1923,13 +1650,13 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
-      <c r="O11" s="10"/>
-    </row>
-    <row r="12" ht="12.75">
+      <c r="O11" s="9"/>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1952,13 +1679,13 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
-      <c r="O12" s="10"/>
-    </row>
-    <row r="13" ht="12.75">
+      <c r="O12" s="9"/>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>10</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1981,13 +1708,13 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
-      <c r="O13" s="10"/>
-    </row>
-    <row r="14" ht="12.75">
+      <c r="O13" s="9"/>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>11</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -2008,13 +1735,13 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
-      <c r="O14" s="10"/>
-    </row>
-    <row r="15" ht="12.75">
+      <c r="O14" s="9"/>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>12</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -2025,7 +1752,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="12">
+      <c r="G15" s="11">
         <v>6</v>
       </c>
       <c r="H15" s="2"/>
@@ -2035,67 +1762,67 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
-      <c r="O15" s="10"/>
-    </row>
-    <row r="16" ht="12.75">
+      <c r="O15" s="9"/>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>13</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="13">
         <v>6</v>
       </c>
-      <c r="E16" s="15">
-        <v>1</v>
-      </c>
-      <c r="F16" s="14"/>
+      <c r="E16" s="13">
+        <v>1</v>
+      </c>
+      <c r="F16" s="13"/>
       <c r="G16" s="2">
         <v>5</v>
       </c>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="16"/>
-    </row>
-    <row r="17" ht="12.75">
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="14"/>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>14</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="6">
         <v>5</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="8"/>
-    </row>
-    <row r="18" ht="12.75">
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="7"/>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>15</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="16" t="s">
         <v>35</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -2114,13 +1841,13 @@
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
-      <c r="O18" s="10"/>
-    </row>
-    <row r="19" ht="12.75">
+      <c r="O18" s="9"/>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>16</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="16" t="s">
         <v>36</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -2139,13 +1866,13 @@
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
-      <c r="O19" s="10"/>
-    </row>
-    <row r="20" ht="12.75">
+      <c r="O19" s="9"/>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>17</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="17" t="s">
         <v>37</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -2164,13 +1891,13 @@
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
-      <c r="O20" s="10"/>
-    </row>
-    <row r="21" ht="12.75">
+      <c r="O20" s="9"/>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>18</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="16" t="s">
         <v>38</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -2189,13 +1916,13 @@
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
-      <c r="O21" s="10"/>
-    </row>
-    <row r="22" ht="12.75">
+      <c r="O21" s="9"/>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>19</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -2214,13 +1941,13 @@
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
-      <c r="O22" s="10"/>
-    </row>
-    <row r="23" ht="12.75">
+      <c r="O22" s="9"/>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>20</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="16" t="s">
         <v>40</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -2239,13 +1966,13 @@
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
-      <c r="O23" s="10"/>
-    </row>
-    <row r="24" ht="12.75">
+      <c r="O23" s="9"/>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>21</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="16" t="s">
         <v>41</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -2266,13 +1993,13 @@
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
-      <c r="O24" s="10"/>
-    </row>
-    <row r="25" ht="12.75">
+      <c r="O24" s="9"/>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>22</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="16" t="s">
         <v>42</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -2291,13 +2018,13 @@
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
-      <c r="O25" s="10"/>
-    </row>
-    <row r="26" ht="12.75">
+      <c r="O25" s="9"/>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="1">
         <v>23</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="16" t="s">
         <v>43</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -2316,13 +2043,13 @@
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
-      <c r="O26" s="10"/>
-    </row>
-    <row r="27" ht="12.75">
+      <c r="O26" s="9"/>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="1">
         <v>24</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="16" t="s">
         <v>44</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -2341,13 +2068,13 @@
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
-      <c r="O27" s="10"/>
-    </row>
-    <row r="28" ht="12.75">
+      <c r="O27" s="9"/>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="1">
         <v>25</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="16" t="s">
         <v>45</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -2366,13 +2093,13 @@
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
-      <c r="O28" s="10"/>
-    </row>
-    <row r="29" ht="12.75">
+      <c r="O28" s="9"/>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="1">
         <v>26</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="16" t="s">
         <v>46</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -2391,13 +2118,13 @@
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
-      <c r="O29" s="10"/>
-    </row>
-    <row r="30" ht="12.75">
+      <c r="O29" s="9"/>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" s="1">
         <v>27</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="16" t="s">
         <v>47</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -2416,13 +2143,13 @@
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
-      <c r="O30" s="10"/>
-    </row>
-    <row r="31" ht="12.75">
+      <c r="O30" s="9"/>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" s="1">
         <v>28</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="16" t="s">
         <v>48</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -2441,13 +2168,13 @@
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
-      <c r="O31" s="10"/>
-    </row>
-    <row r="32" ht="12.75">
+      <c r="O31" s="9"/>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" s="1">
         <v>29</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="16" t="s">
         <v>49</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -2466,13 +2193,13 @@
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
-      <c r="O32" s="10"/>
-    </row>
-    <row r="33" ht="12.75">
+      <c r="O32" s="9"/>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" s="1">
         <v>30</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="16" t="s">
         <v>50</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -2491,13 +2218,13 @@
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
-      <c r="O33" s="10"/>
-    </row>
-    <row r="34" ht="12.75">
+      <c r="O33" s="9"/>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" s="1">
         <v>31</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="16" t="s">
         <v>51</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -2518,13 +2245,13 @@
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
-      <c r="O34" s="10"/>
-    </row>
-    <row r="35" ht="12.75">
+      <c r="O34" s="9"/>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" s="1">
         <v>32</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="16" t="s">
         <v>52</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -2543,68 +2270,68 @@
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
-      <c r="O35" s="10"/>
-    </row>
-    <row r="36" ht="12.75">
+      <c r="O35" s="9"/>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" s="1">
         <v>33</v>
       </c>
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D36" s="14">
+      <c r="D36" s="13">
         <v>6</v>
       </c>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="14"/>
-      <c r="N36" s="14"/>
-      <c r="O36" s="16"/>
-    </row>
-    <row r="37" ht="12.75">
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="14"/>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" s="1">
         <v>34</v>
       </c>
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="C37" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="6">
         <v>6</v>
       </c>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7">
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6">
         <v>10</v>
       </c>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="7"/>
-      <c r="O37" s="8"/>
-    </row>
-    <row r="38" ht="12.75">
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="7"/>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" s="1">
         <v>35</v>
       </c>
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C38" s="24" t="s">
+      <c r="C38" s="22" t="s">
         <v>55</v>
       </c>
       <c r="D38" s="2">
@@ -2622,16 +2349,16 @@
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
-      <c r="O38" s="10"/>
-    </row>
-    <row r="39" ht="12.75">
+      <c r="O38" s="9"/>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39" s="1">
         <v>36</v>
       </c>
-      <c r="B39" s="25" t="s">
+      <c r="B39" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C39" s="24" t="s">
+      <c r="C39" s="22" t="s">
         <v>55</v>
       </c>
       <c r="D39" s="2">
@@ -2651,16 +2378,16 @@
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
-      <c r="O39" s="10"/>
-    </row>
-    <row r="40" ht="12.75">
+      <c r="O39" s="9"/>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40" s="1">
         <v>37</v>
       </c>
-      <c r="B40" s="26" t="s">
+      <c r="B40" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C40" s="24" t="s">
+      <c r="C40" s="22" t="s">
         <v>55</v>
       </c>
       <c r="D40" s="2">
@@ -2678,16 +2405,16 @@
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
-      <c r="O40" s="10"/>
-    </row>
-    <row r="41" ht="12.75">
+      <c r="O40" s="9"/>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41" s="1">
         <v>38</v>
       </c>
-      <c r="B41" s="27" t="s">
+      <c r="B41" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="C41" s="24" t="s">
+      <c r="C41" s="22" t="s">
         <v>55</v>
       </c>
       <c r="D41" s="2">
@@ -2703,16 +2430,16 @@
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
-      <c r="O41" s="10"/>
-    </row>
-    <row r="42" ht="12.75">
+      <c r="O41" s="9"/>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42" s="1">
         <v>39</v>
       </c>
-      <c r="B42" s="28" t="s">
+      <c r="B42" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="C42" s="24" t="s">
+      <c r="C42" s="22" t="s">
         <v>55</v>
       </c>
       <c r="D42" s="2">
@@ -2730,16 +2457,16 @@
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
-      <c r="O42" s="10"/>
-    </row>
-    <row r="43" ht="12.75">
+      <c r="O42" s="9"/>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43" s="1">
         <v>40</v>
       </c>
-      <c r="B43" s="23" t="s">
+      <c r="B43" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C43" s="24" t="s">
+      <c r="C43" s="22" t="s">
         <v>55</v>
       </c>
       <c r="D43" s="2">
@@ -2755,16 +2482,16 @@
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
-      <c r="O43" s="10"/>
-    </row>
-    <row r="44" ht="12.75">
+      <c r="O43" s="9"/>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44" s="1">
         <v>41</v>
       </c>
-      <c r="B44" s="23" t="s">
+      <c r="B44" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C44" s="24" t="s">
+      <c r="C44" s="22" t="s">
         <v>55</v>
       </c>
       <c r="D44" s="2">
@@ -2782,16 +2509,16 @@
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
-      <c r="O44" s="10"/>
-    </row>
-    <row r="45" ht="12.75">
+      <c r="O44" s="9"/>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45" s="1">
         <v>42</v>
       </c>
-      <c r="B45" s="23" t="s">
+      <c r="B45" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C45" s="24" t="s">
+      <c r="C45" s="22" t="s">
         <v>55</v>
       </c>
       <c r="D45" s="2">
@@ -2807,16 +2534,16 @@
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
-      <c r="O45" s="10"/>
-    </row>
-    <row r="46" ht="12.75">
+      <c r="O45" s="9"/>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46" s="1">
         <v>43</v>
       </c>
-      <c r="B46" s="23" t="s">
+      <c r="B46" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C46" s="24" t="s">
+      <c r="C46" s="22" t="s">
         <v>55</v>
       </c>
       <c r="D46" s="2">
@@ -2834,16 +2561,16 @@
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
-      <c r="O46" s="10"/>
-    </row>
-    <row r="47" ht="12.75">
+      <c r="O46" s="9"/>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47" s="1">
         <v>44</v>
       </c>
-      <c r="B47" s="29" t="s">
+      <c r="B47" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="C47" s="24" t="s">
+      <c r="C47" s="22" t="s">
         <v>55</v>
       </c>
       <c r="D47" s="2">
@@ -2859,16 +2586,16 @@
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
-      <c r="O47" s="10"/>
-    </row>
-    <row r="48" ht="12.75">
+      <c r="O47" s="9"/>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48" s="1">
         <v>45</v>
       </c>
-      <c r="B48" s="23" t="s">
+      <c r="B48" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="C48" s="24" t="s">
+      <c r="C48" s="22" t="s">
         <v>55</v>
       </c>
       <c r="D48" s="2">
@@ -2884,16 +2611,16 @@
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
-      <c r="O48" s="10"/>
-    </row>
-    <row r="49" ht="12.75">
+      <c r="O48" s="9"/>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49" s="1">
         <v>46</v>
       </c>
-      <c r="B49" s="23" t="s">
+      <c r="B49" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="C49" s="24" t="s">
+      <c r="C49" s="22" t="s">
         <v>55</v>
       </c>
       <c r="D49" s="2">
@@ -2909,16 +2636,16 @@
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
-      <c r="O49" s="10"/>
-    </row>
-    <row r="50" ht="12.75">
+      <c r="O49" s="9"/>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50" s="1">
         <v>47</v>
       </c>
-      <c r="B50" s="23" t="s">
+      <c r="B50" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="C50" s="24" t="s">
+      <c r="C50" s="22" t="s">
         <v>55</v>
       </c>
       <c r="D50" s="2">
@@ -2936,16 +2663,16 @@
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
-      <c r="O50" s="10"/>
-    </row>
-    <row r="51" ht="12.75">
+      <c r="O50" s="9"/>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51" s="1">
         <v>48</v>
       </c>
-      <c r="B51" s="23" t="s">
+      <c r="B51" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="C51" s="24" t="s">
+      <c r="C51" s="22" t="s">
         <v>55</v>
       </c>
       <c r="D51" s="2">
@@ -2961,16 +2688,16 @@
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
-      <c r="O51" s="10"/>
-    </row>
-    <row r="52" ht="12.75">
+      <c r="O51" s="9"/>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52" s="1">
         <v>49</v>
       </c>
-      <c r="B52" s="23" t="s">
+      <c r="B52" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C52" s="24" t="s">
+      <c r="C52" s="22" t="s">
         <v>55</v>
       </c>
       <c r="D52" s="2">
@@ -2988,16 +2715,16 @@
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
-      <c r="O52" s="10"/>
-    </row>
-    <row r="53" ht="12.75">
+      <c r="O52" s="9"/>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53" s="1">
         <v>50</v>
       </c>
-      <c r="B53" s="23" t="s">
+      <c r="B53" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="C53" s="24" t="s">
+      <c r="C53" s="22" t="s">
         <v>55</v>
       </c>
       <c r="D53" s="2">
@@ -3013,16 +2740,16 @@
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
-      <c r="O53" s="10"/>
-    </row>
-    <row r="54" ht="12.75">
+      <c r="O53" s="9"/>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54" s="1">
         <v>51</v>
       </c>
-      <c r="B54" s="23" t="s">
+      <c r="B54" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="C54" s="24" t="s">
+      <c r="C54" s="22" t="s">
         <v>55</v>
       </c>
       <c r="D54" s="2">
@@ -3040,16 +2767,16 @@
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
-      <c r="O54" s="10"/>
-    </row>
-    <row r="55" ht="12.75">
+      <c r="O54" s="9"/>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55" s="1">
         <v>52</v>
       </c>
-      <c r="B55" s="23" t="s">
+      <c r="B55" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="C55" s="24" t="s">
+      <c r="C55" s="22" t="s">
         <v>55</v>
       </c>
       <c r="D55" s="2">
@@ -3069,16 +2796,16 @@
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
-      <c r="O55" s="10"/>
-    </row>
-    <row r="56" ht="12.75">
+      <c r="O55" s="9"/>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56" s="1">
         <v>53</v>
       </c>
-      <c r="B56" s="23" t="s">
+      <c r="B56" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="C56" s="24" t="s">
+      <c r="C56" s="22" t="s">
         <v>55</v>
       </c>
       <c r="D56" s="2">
@@ -3094,65 +2821,65 @@
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
-      <c r="O56" s="10"/>
-    </row>
-    <row r="57" ht="12.75">
+      <c r="O56" s="9"/>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57" s="1">
         <v>54</v>
       </c>
-      <c r="B57" s="30" t="s">
+      <c r="B57" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="C57" s="31" t="s">
+      <c r="C57" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="D57" s="14">
+      <c r="D57" s="13">
         <v>6</v>
       </c>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14">
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13">
         <v>8</v>
       </c>
-      <c r="H57" s="14"/>
-      <c r="I57" s="14"/>
-      <c r="J57" s="14"/>
-      <c r="K57" s="14"/>
-      <c r="L57" s="14"/>
-      <c r="M57" s="14"/>
-      <c r="N57" s="14"/>
-      <c r="O57" s="16"/>
-    </row>
-    <row r="58" ht="12.75">
+      <c r="H57" s="13"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="13"/>
+      <c r="K57" s="13"/>
+      <c r="L57" s="13"/>
+      <c r="M57" s="13"/>
+      <c r="N57" s="13"/>
+      <c r="O57" s="14"/>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58" s="1">
         <v>55</v>
       </c>
-      <c r="B58" s="21" t="s">
+      <c r="B58" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C58" s="22" t="s">
+      <c r="C58" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="D58" s="7">
+      <c r="D58" s="6">
         <v>0</v>
       </c>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="7"/>
-      <c r="K58" s="7"/>
-      <c r="L58" s="7"/>
-      <c r="M58" s="7"/>
-      <c r="N58" s="7"/>
-      <c r="O58" s="8"/>
-    </row>
-    <row r="59" ht="12.75">
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
+      <c r="L58" s="6"/>
+      <c r="M58" s="6"/>
+      <c r="N58" s="6"/>
+      <c r="O58" s="7"/>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59" s="1">
         <v>56</v>
       </c>
-      <c r="B59" s="32" t="s">
+      <c r="B59" s="30" t="s">
         <v>79</v>
       </c>
       <c r="C59" s="2" t="s">
@@ -3171,16 +2898,16 @@
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
-      <c r="O59" s="10"/>
-    </row>
-    <row r="60" ht="12.75">
+      <c r="O59" s="9"/>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60" s="1">
         <v>57</v>
       </c>
-      <c r="B60" s="32" t="s">
+      <c r="B60" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="C60" s="33" t="s">
+      <c r="C60" s="31" t="s">
         <v>78</v>
       </c>
       <c r="D60" s="2">
@@ -3196,13 +2923,13 @@
       <c r="L60" s="2"/>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
-      <c r="O60" s="10"/>
-    </row>
-    <row r="61" ht="12.75">
+      <c r="O60" s="9"/>
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61" s="1">
         <v>58</v>
       </c>
-      <c r="B61" s="32" t="s">
+      <c r="B61" s="30" t="s">
         <v>81</v>
       </c>
       <c r="C61" s="2" t="s">
@@ -3221,16 +2948,16 @@
       <c r="L61" s="2"/>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
-      <c r="O61" s="10"/>
-    </row>
-    <row r="62" ht="12.75">
+      <c r="O61" s="9"/>
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62" s="1">
         <v>59</v>
       </c>
-      <c r="B62" s="34" t="s">
+      <c r="B62" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="C62" s="33" t="s">
+      <c r="C62" s="31" t="s">
         <v>78</v>
       </c>
       <c r="D62" s="2">
@@ -3246,13 +2973,13 @@
       <c r="L62" s="2"/>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
-      <c r="O62" s="10"/>
-    </row>
-    <row r="63" ht="12.75">
+      <c r="O62" s="9"/>
+    </row>
+    <row r="63" spans="1:15">
       <c r="A63" s="1">
         <v>60</v>
       </c>
-      <c r="B63" s="32" t="s">
+      <c r="B63" s="30" t="s">
         <v>83</v>
       </c>
       <c r="C63" s="2" t="s">
@@ -3271,16 +2998,16 @@
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
-      <c r="O63" s="10"/>
-    </row>
-    <row r="64" ht="12.75">
+      <c r="O63" s="9"/>
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64" s="1">
         <v>61</v>
       </c>
-      <c r="B64" s="32" t="s">
+      <c r="B64" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="C64" s="33" t="s">
+      <c r="C64" s="31" t="s">
         <v>78</v>
       </c>
       <c r="D64" s="2">
@@ -3298,13 +3025,13 @@
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
-      <c r="O64" s="10"/>
-    </row>
-    <row r="65" ht="12.75">
+      <c r="O64" s="9"/>
+    </row>
+    <row r="65" spans="1:15">
       <c r="A65" s="1">
         <v>62</v>
       </c>
-      <c r="B65" s="32" t="s">
+      <c r="B65" s="30" t="s">
         <v>85</v>
       </c>
       <c r="C65" s="2" t="s">
@@ -3323,16 +3050,16 @@
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
-      <c r="O65" s="10"/>
-    </row>
-    <row r="66" ht="12.75">
+      <c r="O65" s="9"/>
+    </row>
+    <row r="66" spans="1:15">
       <c r="A66" s="1">
         <v>63</v>
       </c>
-      <c r="B66" s="32" t="s">
+      <c r="B66" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="C66" s="33" t="s">
+      <c r="C66" s="31" t="s">
         <v>78</v>
       </c>
       <c r="D66" s="2">
@@ -3348,13 +3075,13 @@
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
-      <c r="O66" s="10"/>
-    </row>
-    <row r="67" ht="12.75">
+      <c r="O66" s="9"/>
+    </row>
+    <row r="67" spans="1:15">
       <c r="A67" s="1">
         <v>64</v>
       </c>
-      <c r="B67" s="35" t="s">
+      <c r="B67" s="33" t="s">
         <v>87</v>
       </c>
       <c r="C67" s="2" t="s">
@@ -3373,16 +3100,16 @@
       <c r="L67" s="2"/>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
-      <c r="O67" s="10"/>
-    </row>
-    <row r="68" ht="12.75">
+      <c r="O67" s="9"/>
+    </row>
+    <row r="68" spans="1:15">
       <c r="A68" s="1">
         <v>65</v>
       </c>
-      <c r="B68" s="32" t="s">
+      <c r="B68" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="C68" s="33" t="s">
+      <c r="C68" s="31" t="s">
         <v>78</v>
       </c>
       <c r="D68" s="2">
@@ -3398,13 +3125,13 @@
       <c r="L68" s="2"/>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
-      <c r="O68" s="10"/>
-    </row>
-    <row r="69" ht="12.75">
+      <c r="O68" s="9"/>
+    </row>
+    <row r="69" spans="1:15">
       <c r="A69" s="1">
         <v>66</v>
       </c>
-      <c r="B69" s="32" t="s">
+      <c r="B69" s="30" t="s">
         <v>89</v>
       </c>
       <c r="C69" s="2" t="s">
@@ -3423,16 +3150,16 @@
       <c r="L69" s="2"/>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
-      <c r="O69" s="10"/>
-    </row>
-    <row r="70" ht="12.75">
+      <c r="O69" s="9"/>
+    </row>
+    <row r="70" spans="1:15">
       <c r="A70" s="1">
         <v>67</v>
       </c>
-      <c r="B70" s="32" t="s">
+      <c r="B70" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="C70" s="33" t="s">
+      <c r="C70" s="31" t="s">
         <v>78</v>
       </c>
       <c r="D70" s="2">
@@ -3448,13 +3175,13 @@
       <c r="L70" s="2"/>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
-      <c r="O70" s="10"/>
-    </row>
-    <row r="71" ht="12.75">
+      <c r="O70" s="9"/>
+    </row>
+    <row r="71" spans="1:15">
       <c r="A71" s="1">
         <v>68</v>
       </c>
-      <c r="B71" s="32" t="s">
+      <c r="B71" s="30" t="s">
         <v>91</v>
       </c>
       <c r="C71" s="2" t="s">
@@ -3473,16 +3200,16 @@
       <c r="L71" s="2"/>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
-      <c r="O71" s="10"/>
-    </row>
-    <row r="72" ht="12.75">
+      <c r="O71" s="9"/>
+    </row>
+    <row r="72" spans="1:15">
       <c r="A72" s="1">
         <v>69</v>
       </c>
-      <c r="B72" s="32" t="s">
+      <c r="B72" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="C72" s="33" t="s">
+      <c r="C72" s="31" t="s">
         <v>78</v>
       </c>
       <c r="D72" s="2">
@@ -3498,13 +3225,13 @@
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
-      <c r="O72" s="10"/>
-    </row>
-    <row r="73" ht="12.75">
+      <c r="O72" s="9"/>
+    </row>
+    <row r="73" spans="1:15">
       <c r="A73" s="1">
         <v>70</v>
       </c>
-      <c r="B73" s="32" t="s">
+      <c r="B73" s="30" t="s">
         <v>93</v>
       </c>
       <c r="C73" s="2" t="s">
@@ -3523,16 +3250,16 @@
       <c r="L73" s="2"/>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
-      <c r="O73" s="10"/>
-    </row>
-    <row r="74" ht="12.75">
+      <c r="O73" s="9"/>
+    </row>
+    <row r="74" spans="1:15">
       <c r="A74" s="1">
         <v>71</v>
       </c>
-      <c r="B74" s="32" t="s">
+      <c r="B74" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="C74" s="33" t="s">
+      <c r="C74" s="31" t="s">
         <v>78</v>
       </c>
       <c r="D74" s="2">
@@ -3548,13 +3275,13 @@
       <c r="L74" s="2"/>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
-      <c r="O74" s="10"/>
-    </row>
-    <row r="75" ht="12.75">
+      <c r="O74" s="9"/>
+    </row>
+    <row r="75" spans="1:15">
       <c r="A75" s="1">
         <v>72</v>
       </c>
-      <c r="B75" s="32" t="s">
+      <c r="B75" s="30" t="s">
         <v>95</v>
       </c>
       <c r="C75" s="2" t="s">
@@ -3573,16 +3300,16 @@
       <c r="L75" s="2"/>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
-      <c r="O75" s="10"/>
-    </row>
-    <row r="76" ht="12.75">
+      <c r="O75" s="9"/>
+    </row>
+    <row r="76" spans="1:15">
       <c r="A76" s="1">
         <v>73</v>
       </c>
-      <c r="B76" s="32" t="s">
+      <c r="B76" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="C76" s="33" t="s">
+      <c r="C76" s="31" t="s">
         <v>78</v>
       </c>
       <c r="D76" s="2">
@@ -3598,559 +3325,494 @@
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
-      <c r="O76" s="10"/>
-    </row>
-    <row r="77" ht="12.75">
+      <c r="O76" s="9"/>
+    </row>
+    <row r="77" spans="1:15">
       <c r="A77" s="1">
         <v>74</v>
       </c>
-      <c r="B77" s="36" t="s">
+      <c r="B77" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="C77" s="14" t="s">
+      <c r="C77" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="D77" s="14">
+      <c r="D77" s="13">
         <v>3</v>
       </c>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c r="G77" s="14"/>
-      <c r="H77" s="14"/>
-      <c r="I77" s="14"/>
-      <c r="J77" s="14"/>
-      <c r="K77" s="14"/>
-      <c r="L77" s="14"/>
-      <c r="M77" s="14"/>
-      <c r="N77" s="14"/>
-      <c r="O77" s="16"/>
-    </row>
-    <row r="78" ht="12.75">
+      <c r="E77" s="13"/>
+      <c r="F77" s="13"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="13"/>
+      <c r="I77" s="13"/>
+      <c r="J77" s="13"/>
+      <c r="K77" s="13"/>
+      <c r="L77" s="13"/>
+      <c r="M77" s="13"/>
+      <c r="N77" s="13"/>
+      <c r="O77" s="14"/>
+    </row>
+    <row r="78" spans="1:15">
       <c r="A78" s="1">
         <v>75</v>
       </c>
-      <c r="B78" s="37" t="s">
+      <c r="B78" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="C78" s="38" t="s">
+      <c r="C78" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="D78" s="38">
+      <c r="D78" s="36">
         <v>3</v>
       </c>
-      <c r="E78" s="38"/>
-      <c r="F78" s="38"/>
-      <c r="G78" s="38"/>
-      <c r="H78" s="38"/>
-      <c r="I78" s="38"/>
-      <c r="J78" s="38"/>
-      <c r="K78" s="38"/>
-      <c r="L78" s="38"/>
-      <c r="M78" s="38"/>
-      <c r="N78" s="38"/>
-      <c r="O78" s="38"/>
-    </row>
-    <row r="79" ht="12.75">
-      <c r="A79" s="39">
+      <c r="E78" s="36"/>
+      <c r="F78" s="36"/>
+      <c r="G78" s="36"/>
+      <c r="H78" s="36"/>
+      <c r="I78" s="36"/>
+      <c r="J78" s="36"/>
+      <c r="K78" s="36"/>
+      <c r="L78" s="36"/>
+      <c r="M78" s="36"/>
+      <c r="N78" s="36"/>
+      <c r="O78" s="36"/>
+    </row>
+    <row r="79" spans="1:15">
+      <c r="A79" s="37">
         <v>76</v>
       </c>
-      <c r="B79" s="40" t="s">
+      <c r="B79" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="C79" s="41" t="s">
+      <c r="C79" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="D79" s="41"/>
-      <c r="E79" s="42"/>
-      <c r="F79" s="42"/>
-      <c r="G79" s="42"/>
-      <c r="H79" s="42"/>
-      <c r="I79" s="42"/>
-      <c r="J79" s="42"/>
-      <c r="K79" s="42"/>
-      <c r="L79" s="42"/>
-      <c r="M79" s="42"/>
-      <c r="N79" s="42"/>
-      <c r="O79" s="42"/>
-    </row>
-    <row r="80" ht="12.75">
+      <c r="D79" s="39"/>
+      <c r="E79" s="40"/>
+      <c r="F79" s="40"/>
+      <c r="G79" s="40"/>
+      <c r="H79" s="40"/>
+      <c r="I79" s="40"/>
+      <c r="J79" s="40"/>
+      <c r="K79" s="40"/>
+      <c r="L79" s="40"/>
+      <c r="M79" s="40"/>
+      <c r="N79" s="40"/>
+      <c r="O79" s="40"/>
+    </row>
+    <row r="80" spans="1:15">
       <c r="A80" s="1">
         <v>77</v>
       </c>
-      <c r="B80" s="43" t="s">
+      <c r="B80" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="C80" s="44" t="s">
+      <c r="C80" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="D80" s="45">
+      <c r="D80" s="43">
         <v>6</v>
       </c>
-      <c r="E80" s="46"/>
-      <c r="F80" s="46"/>
-      <c r="G80" s="46"/>
-      <c r="H80" s="46"/>
-      <c r="I80" s="46"/>
-      <c r="J80" s="46"/>
-      <c r="K80" s="46"/>
-      <c r="L80" s="46"/>
-      <c r="M80" s="46"/>
-      <c r="N80" s="46"/>
-      <c r="O80" s="46"/>
-    </row>
-    <row r="81" ht="12.75">
+      <c r="E80" s="44"/>
+      <c r="F80" s="44"/>
+      <c r="G80" s="44"/>
+      <c r="H80" s="44"/>
+      <c r="I80" s="44"/>
+      <c r="J80" s="44"/>
+      <c r="K80" s="44"/>
+      <c r="L80" s="44"/>
+      <c r="M80" s="44"/>
+      <c r="N80" s="44"/>
+      <c r="O80" s="44"/>
+    </row>
+    <row r="81" spans="1:15">
       <c r="A81" s="1">
         <v>78</v>
       </c>
-      <c r="B81" s="43" t="s">
+      <c r="B81" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="C81" s="45" t="s">
+      <c r="C81" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="D81" s="45">
+      <c r="D81" s="43">
         <v>2</v>
       </c>
-      <c r="E81" s="46"/>
-      <c r="F81" s="46"/>
-      <c r="G81" s="46"/>
-      <c r="H81" s="46"/>
-      <c r="I81" s="46"/>
-      <c r="J81" s="46"/>
-      <c r="K81" s="46"/>
-      <c r="L81" s="46"/>
-      <c r="M81" s="46"/>
-      <c r="N81" s="46"/>
-      <c r="O81" s="46"/>
-    </row>
-    <row r="82" ht="12.75">
+      <c r="E81" s="44"/>
+      <c r="F81" s="44"/>
+      <c r="G81" s="44"/>
+      <c r="H81" s="44"/>
+      <c r="I81" s="44"/>
+      <c r="J81" s="44"/>
+      <c r="K81" s="44"/>
+      <c r="L81" s="44"/>
+      <c r="M81" s="44"/>
+      <c r="N81" s="44"/>
+      <c r="O81" s="44"/>
+    </row>
+    <row r="82" spans="1:15">
       <c r="A82" s="1">
         <v>79</v>
       </c>
-      <c r="B82" s="43" t="s">
+      <c r="B82" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="C82" s="44" t="s">
+      <c r="C82" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="D82" s="45">
+      <c r="D82" s="43">
         <v>3</v>
       </c>
-      <c r="E82" s="46"/>
-      <c r="F82" s="46"/>
-      <c r="G82" s="46"/>
-      <c r="H82" s="46"/>
-      <c r="I82" s="46"/>
-      <c r="J82" s="46"/>
-      <c r="K82" s="46"/>
-      <c r="L82" s="46"/>
-      <c r="M82" s="46"/>
-      <c r="N82" s="46"/>
-      <c r="O82" s="46"/>
-    </row>
-    <row r="83" ht="12.75">
+      <c r="E82" s="44"/>
+      <c r="F82" s="44"/>
+      <c r="G82" s="44"/>
+      <c r="H82" s="44"/>
+      <c r="I82" s="44"/>
+      <c r="J82" s="44"/>
+      <c r="K82" s="44"/>
+      <c r="L82" s="44"/>
+      <c r="M82" s="44"/>
+      <c r="N82" s="44"/>
+      <c r="O82" s="44"/>
+    </row>
+    <row r="83" spans="1:15">
       <c r="A83" s="1">
         <v>80</v>
       </c>
-      <c r="B83" s="43" t="s">
+      <c r="B83" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="C83" s="45" t="s">
+      <c r="C83" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="D83" s="45">
+      <c r="D83" s="43">
         <v>3</v>
       </c>
-      <c r="E83" s="46">
-        <v>1</v>
-      </c>
-      <c r="F83" s="46"/>
-      <c r="G83" s="46"/>
-      <c r="H83" s="46"/>
-      <c r="I83" s="46"/>
-      <c r="J83" s="46"/>
-      <c r="K83" s="46"/>
-      <c r="L83" s="46"/>
-      <c r="M83" s="46"/>
-      <c r="N83" s="46"/>
-      <c r="O83" s="46"/>
-    </row>
-    <row r="84" ht="12.75">
+      <c r="E83" s="44">
+        <v>1</v>
+      </c>
+      <c r="F83" s="44"/>
+      <c r="G83" s="44"/>
+      <c r="H83" s="44"/>
+      <c r="I83" s="44"/>
+      <c r="J83" s="44"/>
+      <c r="K83" s="44"/>
+      <c r="L83" s="44"/>
+      <c r="M83" s="44"/>
+      <c r="N83" s="44"/>
+      <c r="O83" s="44"/>
+    </row>
+    <row r="84" spans="1:15">
       <c r="A84" s="1">
         <v>81</v>
       </c>
-      <c r="B84" s="43" t="s">
+      <c r="B84" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="C84" s="44" t="s">
+      <c r="C84" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="D84" s="45">
+      <c r="D84" s="43">
         <v>3</v>
       </c>
-      <c r="E84" s="46"/>
-      <c r="F84" s="46"/>
-      <c r="G84" s="46"/>
-      <c r="H84" s="46"/>
-      <c r="I84" s="46"/>
-      <c r="J84" s="46"/>
-      <c r="K84" s="46"/>
-      <c r="L84" s="46"/>
-      <c r="M84" s="46"/>
-      <c r="N84" s="46"/>
-      <c r="O84" s="46"/>
-    </row>
-    <row r="85" ht="12.75">
+      <c r="E84" s="44"/>
+      <c r="F84" s="44"/>
+      <c r="G84" s="44"/>
+      <c r="H84" s="44"/>
+      <c r="I84" s="44"/>
+      <c r="J84" s="44"/>
+      <c r="K84" s="44"/>
+      <c r="L84" s="44"/>
+      <c r="M84" s="44"/>
+      <c r="N84" s="44"/>
+      <c r="O84" s="44"/>
+    </row>
+    <row r="85" spans="1:15">
       <c r="A85" s="1">
         <v>82</v>
       </c>
-      <c r="B85" s="43" t="s">
+      <c r="B85" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="C85" s="45" t="s">
+      <c r="C85" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="D85" s="45">
+      <c r="D85" s="43">
         <v>3</v>
       </c>
-      <c r="E85" s="46"/>
-      <c r="F85" s="46"/>
-      <c r="G85" s="46"/>
-      <c r="H85" s="46"/>
-      <c r="I85" s="46"/>
-      <c r="J85" s="46"/>
-      <c r="K85" s="46"/>
-      <c r="L85" s="46"/>
-      <c r="M85" s="46"/>
-      <c r="N85" s="46"/>
-      <c r="O85" s="46"/>
-    </row>
-    <row r="86" ht="12.75">
+      <c r="E85" s="44"/>
+      <c r="F85" s="44"/>
+      <c r="G85" s="44"/>
+      <c r="H85" s="44"/>
+      <c r="I85" s="44"/>
+      <c r="J85" s="44"/>
+      <c r="K85" s="44"/>
+      <c r="L85" s="44"/>
+      <c r="M85" s="44"/>
+      <c r="N85" s="44"/>
+      <c r="O85" s="44"/>
+    </row>
+    <row r="86" spans="1:15">
       <c r="A86" s="1">
         <v>83</v>
       </c>
-      <c r="B86" s="43" t="s">
+      <c r="B86" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="C86" s="44" t="s">
+      <c r="C86" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="D86" s="45">
-        <v>1</v>
-      </c>
-      <c r="E86" s="46"/>
-      <c r="F86" s="46"/>
-      <c r="G86" s="46"/>
-      <c r="H86" s="46"/>
-      <c r="I86" s="46"/>
-      <c r="J86" s="46"/>
-      <c r="K86" s="46"/>
-      <c r="L86" s="46"/>
-      <c r="M86" s="46"/>
-      <c r="N86" s="46"/>
-      <c r="O86" s="46"/>
-    </row>
-    <row r="87" ht="12.75">
+      <c r="D86" s="43">
+        <v>1</v>
+      </c>
+      <c r="E86" s="44"/>
+      <c r="F86" s="44"/>
+      <c r="G86" s="44"/>
+      <c r="H86" s="44"/>
+      <c r="I86" s="44"/>
+      <c r="J86" s="44"/>
+      <c r="K86" s="44"/>
+      <c r="L86" s="44"/>
+      <c r="M86" s="44"/>
+      <c r="N86" s="44"/>
+      <c r="O86" s="44"/>
+    </row>
+    <row r="87" spans="1:15">
       <c r="A87" s="1">
         <v>84</v>
       </c>
-      <c r="B87" s="43" t="s">
+      <c r="B87" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="C87" s="45" t="s">
+      <c r="C87" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="D87" s="45">
+      <c r="D87" s="43">
         <v>6</v>
       </c>
-      <c r="E87" s="46"/>
-      <c r="F87" s="46"/>
-      <c r="G87" s="46"/>
-      <c r="H87" s="46"/>
-      <c r="I87" s="46"/>
-      <c r="J87" s="46"/>
-      <c r="K87" s="46"/>
-      <c r="L87" s="46"/>
-      <c r="M87" s="46"/>
-      <c r="N87" s="46"/>
-      <c r="O87" s="46"/>
-    </row>
-    <row r="88" ht="12.75">
+      <c r="E87" s="44"/>
+      <c r="F87" s="44"/>
+      <c r="G87" s="44"/>
+      <c r="H87" s="44"/>
+      <c r="I87" s="44"/>
+      <c r="J87" s="44"/>
+      <c r="K87" s="44"/>
+      <c r="L87" s="44"/>
+      <c r="M87" s="44"/>
+      <c r="N87" s="44"/>
+      <c r="O87" s="44"/>
+    </row>
+    <row r="88" spans="1:15">
       <c r="A88" s="1">
         <v>85</v>
       </c>
-      <c r="B88" s="43" t="s">
+      <c r="B88" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="C88" s="44" t="s">
+      <c r="C88" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="D88" s="45">
+      <c r="D88" s="43">
         <v>2</v>
       </c>
-      <c r="E88" s="46"/>
-      <c r="F88" s="46"/>
-      <c r="G88" s="46"/>
-      <c r="H88" s="46"/>
-      <c r="I88" s="46"/>
-      <c r="J88" s="46"/>
-      <c r="K88" s="46"/>
-      <c r="L88" s="46"/>
-      <c r="M88" s="46"/>
-      <c r="N88" s="46"/>
-      <c r="O88" s="46"/>
-    </row>
-    <row r="89" ht="12.75">
+      <c r="E88" s="44"/>
+      <c r="F88" s="44"/>
+      <c r="G88" s="44"/>
+      <c r="H88" s="44"/>
+      <c r="I88" s="44"/>
+      <c r="J88" s="44"/>
+      <c r="K88" s="44"/>
+      <c r="L88" s="44"/>
+      <c r="M88" s="44"/>
+      <c r="N88" s="44"/>
+      <c r="O88" s="44"/>
+    </row>
+    <row r="89" spans="1:15">
       <c r="A89" s="1">
         <v>86</v>
       </c>
-      <c r="B89" s="43" t="s">
+      <c r="B89" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="C89" s="45" t="s">
+      <c r="C89" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="D89" s="45">
+      <c r="D89" s="43">
         <v>5</v>
       </c>
-      <c r="E89" s="46"/>
-      <c r="F89" s="46"/>
-      <c r="G89" s="46"/>
-      <c r="H89" s="46"/>
-      <c r="I89" s="46"/>
-      <c r="J89" s="46"/>
-      <c r="K89" s="46"/>
-      <c r="L89" s="46"/>
-      <c r="M89" s="46"/>
-      <c r="N89" s="46"/>
-      <c r="O89" s="46"/>
-    </row>
-    <row r="90" ht="12.75">
+      <c r="E89" s="44"/>
+      <c r="F89" s="44"/>
+      <c r="G89" s="44"/>
+      <c r="H89" s="44"/>
+      <c r="I89" s="44"/>
+      <c r="J89" s="44"/>
+      <c r="K89" s="44"/>
+      <c r="L89" s="44"/>
+      <c r="M89" s="44"/>
+      <c r="N89" s="44"/>
+      <c r="O89" s="44"/>
+    </row>
+    <row r="90" spans="1:15">
       <c r="A90" s="1">
         <v>87</v>
       </c>
-      <c r="B90" s="43" t="s">
+      <c r="B90" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="C90" s="44" t="s">
+      <c r="C90" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="D90" s="45">
+      <c r="D90" s="43">
         <v>4</v>
       </c>
-      <c r="E90" s="46"/>
-      <c r="F90" s="46"/>
-      <c r="G90" s="46"/>
-      <c r="H90" s="46"/>
-      <c r="I90" s="46"/>
-      <c r="J90" s="46"/>
-      <c r="K90" s="46"/>
-      <c r="L90" s="46"/>
-      <c r="M90" s="46"/>
-      <c r="N90" s="46"/>
-      <c r="O90" s="46"/>
-    </row>
-    <row r="91" ht="12.75">
+      <c r="E90" s="44"/>
+      <c r="F90" s="44"/>
+      <c r="G90" s="44"/>
+      <c r="H90" s="44"/>
+      <c r="I90" s="44"/>
+      <c r="J90" s="44"/>
+      <c r="K90" s="44"/>
+      <c r="L90" s="44"/>
+      <c r="M90" s="44"/>
+      <c r="N90" s="44"/>
+      <c r="O90" s="44"/>
+    </row>
+    <row r="91" spans="1:15">
       <c r="A91" s="1">
         <v>88</v>
       </c>
-      <c r="B91" s="43" t="s">
+      <c r="B91" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="C91" s="45" t="s">
+      <c r="C91" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="D91" s="45">
+      <c r="D91" s="43">
         <v>4</v>
       </c>
-      <c r="E91" s="46"/>
-      <c r="F91" s="46"/>
-      <c r="G91" s="46"/>
-      <c r="H91" s="46"/>
-      <c r="I91" s="46"/>
-      <c r="J91" s="46"/>
-      <c r="K91" s="46"/>
-      <c r="L91" s="46"/>
-      <c r="M91" s="46"/>
-      <c r="N91" s="46"/>
-      <c r="O91" s="46"/>
-    </row>
-    <row r="92" ht="12.75">
+      <c r="E91" s="44"/>
+      <c r="F91" s="44"/>
+      <c r="G91" s="44"/>
+      <c r="H91" s="44"/>
+      <c r="I91" s="44"/>
+      <c r="J91" s="44"/>
+      <c r="K91" s="44"/>
+      <c r="L91" s="44"/>
+      <c r="M91" s="44"/>
+      <c r="N91" s="44"/>
+      <c r="O91" s="44"/>
+    </row>
+    <row r="92" spans="1:15">
       <c r="A92" s="1">
         <v>89</v>
       </c>
-      <c r="B92" s="43" t="s">
+      <c r="B92" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="C92" s="44" t="s">
+      <c r="C92" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="D92" s="45">
+      <c r="D92" s="43">
         <v>3</v>
       </c>
-      <c r="E92" s="46"/>
-      <c r="F92" s="46"/>
-      <c r="G92" s="46"/>
-      <c r="H92" s="46"/>
-      <c r="I92" s="46"/>
-      <c r="J92" s="46"/>
-      <c r="K92" s="46"/>
-      <c r="L92" s="46"/>
-      <c r="M92" s="46"/>
-      <c r="N92" s="46"/>
-      <c r="O92" s="46"/>
-    </row>
-    <row r="93" ht="12.75">
+      <c r="E92" s="44"/>
+      <c r="F92" s="44"/>
+      <c r="G92" s="44"/>
+      <c r="H92" s="44"/>
+      <c r="I92" s="44"/>
+      <c r="J92" s="44"/>
+      <c r="K92" s="44"/>
+      <c r="L92" s="44"/>
+      <c r="M92" s="44"/>
+      <c r="N92" s="44"/>
+      <c r="O92" s="44"/>
+    </row>
+    <row r="93" spans="1:15">
       <c r="A93" s="1">
         <v>90</v>
       </c>
-      <c r="B93" s="47" t="s">
+      <c r="B93" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="C93" s="45" t="s">
+      <c r="C93" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="D93" s="45">
+      <c r="D93" s="43">
         <v>5</v>
       </c>
-      <c r="E93" s="46"/>
-      <c r="F93" s="46"/>
-      <c r="G93" s="46"/>
-      <c r="H93" s="46"/>
-      <c r="I93" s="46"/>
-      <c r="J93" s="46"/>
-      <c r="K93" s="46"/>
-      <c r="L93" s="46"/>
-      <c r="M93" s="46"/>
-      <c r="N93" s="46"/>
-      <c r="O93" s="46"/>
-    </row>
-    <row r="94" ht="12.75">
+      <c r="E93" s="44"/>
+      <c r="F93" s="44"/>
+      <c r="G93" s="44"/>
+      <c r="H93" s="44"/>
+      <c r="I93" s="44"/>
+      <c r="J93" s="44"/>
+      <c r="K93" s="44"/>
+      <c r="L93" s="44"/>
+      <c r="M93" s="44"/>
+      <c r="N93" s="44"/>
+      <c r="O93" s="44"/>
+    </row>
+    <row r="94" spans="1:15">
       <c r="A94" s="1">
         <v>91</v>
       </c>
-      <c r="B94" s="48" t="s">
+      <c r="B94" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="C94" s="44" t="s">
+      <c r="C94" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="D94" s="45">
+      <c r="D94" s="43">
         <v>4</v>
       </c>
-      <c r="E94" s="46"/>
-      <c r="F94" s="46"/>
-      <c r="G94" s="46"/>
-      <c r="H94" s="46"/>
-      <c r="I94" s="46"/>
-      <c r="J94" s="46"/>
-      <c r="K94" s="46"/>
-      <c r="L94" s="46"/>
-      <c r="M94" s="46"/>
-      <c r="N94" s="46"/>
-      <c r="O94" s="46"/>
-    </row>
-    <row r="95" ht="12.75">
+      <c r="E94" s="44"/>
+      <c r="F94" s="44"/>
+      <c r="G94" s="44"/>
+      <c r="H94" s="44"/>
+      <c r="I94" s="44"/>
+      <c r="J94" s="44"/>
+      <c r="K94" s="44"/>
+      <c r="L94" s="44"/>
+      <c r="M94" s="44"/>
+      <c r="N94" s="44"/>
+      <c r="O94" s="44"/>
+    </row>
+    <row r="95" spans="1:15">
       <c r="A95" s="1"/>
-      <c r="B95" s="49"/>
-      <c r="C95" s="50"/>
-      <c r="D95" s="49"/>
-      <c r="E95" s="49"/>
-      <c r="F95" s="49"/>
-      <c r="G95" s="49"/>
-      <c r="H95" s="49"/>
-      <c r="I95" s="49"/>
-      <c r="J95" s="49"/>
-      <c r="K95" s="49"/>
-      <c r="L95" s="49"/>
-      <c r="M95" s="49"/>
-      <c r="N95" s="49"/>
-      <c r="O95" s="49"/>
-    </row>
-    <row r="96" ht="12.75">
+      <c r="B95" s="47"/>
+      <c r="C95" s="48"/>
+      <c r="D95" s="47"/>
+      <c r="E95" s="47"/>
+      <c r="F95" s="47"/>
+      <c r="G95" s="47"/>
+      <c r="H95" s="47"/>
+      <c r="I95" s="47"/>
+      <c r="J95" s="47"/>
+      <c r="K95" s="47"/>
+      <c r="L95" s="47"/>
+      <c r="M95" s="47"/>
+      <c r="N95" s="47"/>
+      <c r="O95" s="47"/>
+    </row>
+    <row r="96" spans="1:15">
       <c r="A96" s="1"/>
-      <c r="B96" s="51"/>
       <c r="C96" s="1"/>
-      <c r="D96" s="51"/>
-      <c r="E96" s="51"/>
-      <c r="F96" s="51"/>
-      <c r="G96" s="51"/>
-      <c r="H96" s="51"/>
-      <c r="I96" s="51"/>
-      <c r="J96" s="51"/>
-      <c r="K96" s="51"/>
-      <c r="L96" s="51"/>
-      <c r="M96" s="51"/>
-      <c r="N96" s="51"/>
-      <c r="O96" s="51"/>
-    </row>
-    <row r="97" ht="12.75">
+    </row>
+    <row r="97" spans="1:3">
       <c r="A97" s="1"/>
-      <c r="B97" s="51"/>
-      <c r="C97" s="12"/>
-      <c r="D97" s="51"/>
-      <c r="E97" s="51"/>
-      <c r="F97" s="51"/>
-      <c r="G97" s="51"/>
-      <c r="H97" s="51"/>
-      <c r="I97" s="51"/>
-      <c r="J97" s="51"/>
-      <c r="K97" s="51"/>
-      <c r="L97" s="51"/>
-      <c r="M97" s="51"/>
-      <c r="N97" s="51"/>
-      <c r="O97" s="51"/>
-    </row>
-    <row r="98" ht="12.75">
+      <c r="C97" s="11"/>
+    </row>
+    <row r="98" spans="1:3">
       <c r="A98" s="1"/>
-      <c r="B98" s="51"/>
       <c r="C98" s="1"/>
-      <c r="D98" s="51"/>
-      <c r="E98" s="51"/>
-      <c r="F98" s="51"/>
-      <c r="G98" s="51"/>
-      <c r="H98" s="51"/>
-      <c r="I98" s="51"/>
-      <c r="J98" s="51"/>
-      <c r="K98" s="51"/>
-      <c r="L98" s="51"/>
-      <c r="M98" s="51"/>
-      <c r="N98" s="51"/>
-      <c r="O98" s="51"/>
-    </row>
-    <row r="99" ht="12.75">
+    </row>
+    <row r="99" spans="1:3">
       <c r="A99" s="1"/>
-      <c r="B99" s="51"/>
-      <c r="C99" s="12"/>
-      <c r="D99" s="51"/>
-      <c r="E99" s="51"/>
-      <c r="F99" s="51"/>
-      <c r="G99" s="51"/>
-      <c r="H99" s="51"/>
-      <c r="I99" s="51"/>
-      <c r="J99" s="51"/>
-      <c r="K99" s="51"/>
-      <c r="L99" s="51"/>
-      <c r="M99" s="51"/>
-      <c r="N99" s="51"/>
-      <c r="O99" s="51"/>
-    </row>
-    <row r="100" ht="12.75">
+      <c r="C99" s="11"/>
+    </row>
+    <row r="100" spans="1:3">
       <c r="A100" s="1"/>
-      <c r="B100" s="51"/>
       <c r="C100" s="1"/>
-      <c r="D100" s="51"/>
-      <c r="E100" s="51"/>
-      <c r="F100" s="51"/>
-      <c r="G100" s="51"/>
-      <c r="H100" s="51"/>
-      <c r="I100" s="51"/>
-      <c r="J100" s="51"/>
-      <c r="K100" s="51"/>
-      <c r="L100" s="51"/>
-      <c r="M100" s="51"/>
-      <c r="N100" s="51"/>
-      <c r="O100" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4158,728 +3820,716 @@
     <mergeCell ref="G1:K1"/>
     <mergeCell ref="L1:O2"/>
   </mergeCells>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.51181102362204689" footer="0.51181102362204689"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51181102362204689" footer="0.51181102362204689"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="2" max="2" width="192.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="49">
+        <v>3</v>
+      </c>
+      <c r="B8" s="49" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="49">
+        <v>4</v>
+      </c>
+      <c r="B9" s="49" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="49">
+        <v>5</v>
+      </c>
+      <c r="B10" s="49" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="49">
+        <v>6</v>
+      </c>
+      <c r="B11" s="49" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="47" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="52">
+        <v>45933</v>
+      </c>
+      <c r="D1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" s="52">
+        <v>45961</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" t="s">
+        <v>130</v>
+      </c>
+      <c r="E10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D11" t="s">
+        <v>130</v>
+      </c>
+      <c r="E11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" t="s">
+        <v>130</v>
+      </c>
+      <c r="D13" t="s">
+        <v>130</v>
+      </c>
+      <c r="E13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" t="s">
+        <v>130</v>
+      </c>
+      <c r="D14" t="s">
+        <v>130</v>
+      </c>
+      <c r="E14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="44.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="55">
+        <v>45934</v>
+      </c>
+      <c r="C1" s="52">
+        <v>45948</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="56" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="51">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="56" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="51">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="51">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="51">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="51">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="51">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="51">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="51">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="51">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="51">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="51"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="51">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="51"/>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="51">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="B16" s="51">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="56" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17" s="51">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="51">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="51">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="51">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="51">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="192.140625"/>
+    <col min="2" max="2" width="36.28515625" customWidth="1"/>
+    <col min="3" max="3" width="53.5703125" customWidth="1"/>
+    <col min="4" max="4" width="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
+    <row r="1" spans="1:4">
+      <c r="A1" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="64" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="64" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" s="64" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="138.75" customHeight="1">
+      <c r="A2" s="51">
+        <v>1</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="60" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" s="60" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="123" customHeight="1">
+      <c r="A3" s="51">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="8" ht="12.75">
-      <c r="A8" s="52">
+      <c r="B3" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="60" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" s="60" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="204.75" customHeight="1">
+      <c r="A4" s="51">
         <v>3</v>
       </c>
-      <c r="B8" s="52" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="9" ht="12.75">
-      <c r="A9" s="52">
+      <c r="B4" s="51" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" s="60" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" s="60" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="185.25" customHeight="1">
+      <c r="A5" s="51">
         <v>4</v>
       </c>
-      <c r="B9" s="52" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="10" ht="12.75">
-      <c r="A10" s="52">
+      <c r="B5" s="61" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="171" customHeight="1">
+      <c r="A6" s="51">
         <v>5</v>
       </c>
-      <c r="B10" s="52" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="11" ht="12.75">
-      <c r="A11" s="52">
-        <v>6</v>
-      </c>
-      <c r="B11" s="52" t="s">
-        <v>127</v>
+      <c r="B6" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="60" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6" s="60" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
-  <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="47.00390625"/>
-    <col customWidth="1" min="2" max="2" width="10.421875"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="54" t="s">
-        <v>128</v>
-      </c>
-      <c r="C1" s="55">
-        <v>45933</v>
-      </c>
-      <c r="D1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E1" s="56">
-        <v>45961</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="54" t="s">
-        <v>130</v>
-      </c>
-      <c r="C2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="57" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="54" t="s">
-        <v>130</v>
-      </c>
-      <c r="C3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D3" t="s">
-        <v>130</v>
-      </c>
-      <c r="E3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="54" t="s">
-        <v>130</v>
-      </c>
-      <c r="C4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="54" t="s">
-        <v>130</v>
-      </c>
-      <c r="C5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D5" t="s">
-        <v>130</v>
-      </c>
-      <c r="E5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="54" t="s">
-        <v>130</v>
-      </c>
-      <c r="C6" t="s">
-        <v>130</v>
-      </c>
-      <c r="D6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="57" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="54" t="s">
-        <v>130</v>
-      </c>
-      <c r="C7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D7" t="s">
-        <v>130</v>
-      </c>
-      <c r="E7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="57" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="54" t="s">
-        <v>131</v>
-      </c>
-      <c r="C8" t="s">
-        <v>131</v>
-      </c>
-      <c r="D8" t="s">
-        <v>131</v>
-      </c>
-      <c r="E8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="57" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="54" t="s">
-        <v>131</v>
-      </c>
-      <c r="C9" t="s">
-        <v>131</v>
-      </c>
-      <c r="D9" t="s">
-        <v>131</v>
-      </c>
-      <c r="E9" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="54" t="s">
-        <v>130</v>
-      </c>
-      <c r="C10" t="s">
-        <v>130</v>
-      </c>
-      <c r="D10" t="s">
-        <v>130</v>
-      </c>
-      <c r="E10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="54" t="s">
-        <v>130</v>
-      </c>
-      <c r="C11" t="s">
-        <v>130</v>
-      </c>
-      <c r="D11" t="s">
-        <v>130</v>
-      </c>
-      <c r="E11" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="57" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="54" t="s">
-        <v>130</v>
-      </c>
-      <c r="C12" t="s">
-        <v>131</v>
-      </c>
-      <c r="D12" t="s">
-        <v>130</v>
-      </c>
-      <c r="E12" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="57" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="54" t="s">
-        <v>130</v>
-      </c>
-      <c r="C13" t="s">
-        <v>130</v>
-      </c>
-      <c r="D13" t="s">
-        <v>130</v>
-      </c>
-      <c r="E13" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="54" t="s">
-        <v>130</v>
-      </c>
-      <c r="C14" t="s">
-        <v>130</v>
-      </c>
-      <c r="D14" t="s">
-        <v>130</v>
-      </c>
-      <c r="E14" t="s">
-        <v>130</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
-  <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="44.8515625"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="59">
-        <v>45934</v>
-      </c>
-      <c r="C1" s="55">
-        <v>45948</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="60" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="54">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="60" t="s">
-        <v>132</v>
-      </c>
-      <c r="B3" s="54">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="60" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="54">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="61" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="54">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="54">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="54">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="60" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" s="54">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="60" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9" s="54">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="60" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" s="54">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="60" t="s">
-        <v>64</v>
-      </c>
-      <c r="B11" s="54">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="63" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" s="54"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="60" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" s="54">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="60" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" s="54"/>
-      <c r="C14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="54">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="60" t="s">
-        <v>133</v>
-      </c>
-      <c r="B16" s="54">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="60" t="s">
-        <v>134</v>
-      </c>
-      <c r="B17" s="54">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="60" t="s">
-        <v>72</v>
-      </c>
-      <c r="B18" s="54">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="54">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="60" t="s">
-        <v>74</v>
-      </c>
-      <c r="B20" s="54">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="60" t="s">
-        <v>75</v>
-      </c>
-      <c r="B21" s="54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="60" t="s">
-        <v>76</v>
-      </c>
-      <c r="B22" s="54">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
-  <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col customWidth="1" min="2" max="2" width="36.28125"/>
-    <col customWidth="1" min="3" max="3" width="53.57421875"/>
-    <col customWidth="1" min="4" max="4" width="49.00390625"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="54" t="s">
-        <v>135</v>
-      </c>
-      <c r="C1" s="54" t="s">
-        <v>136</v>
-      </c>
-      <c r="D1" s="54" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="2" ht="138.75" customHeight="1">
-      <c r="A2" s="54">
-        <v>1</v>
-      </c>
-      <c r="B2" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C2" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="D2" s="64" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="3" ht="123" customHeight="1">
-      <c r="A3" s="54">
-        <v>2</v>
-      </c>
-      <c r="B3" s="54" t="s">
-        <v>141</v>
-      </c>
-      <c r="C3" s="64" t="s">
-        <v>142</v>
-      </c>
-      <c r="D3" s="64" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="4" ht="204.75" customHeight="1">
-      <c r="A4" s="54">
-        <v>3</v>
-      </c>
-      <c r="B4" s="54" t="s">
-        <v>144</v>
-      </c>
-      <c r="C4" s="64" t="s">
-        <v>145</v>
-      </c>
-      <c r="D4" s="64" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="5" ht="185.25" customHeight="1">
-      <c r="A5" s="54">
-        <v>4</v>
-      </c>
-      <c r="B5" s="65" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="6" ht="132.75" customHeight="1">
-      <c r="A6" s="54">
-        <v>5</v>
-      </c>
-      <c r="B6" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="64" t="s">
-        <v>148</v>
-      </c>
-      <c r="D6" s="64" t="s">
-        <v>149</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>